--- a/AB020_機能設計書/BB020_テーブル設計書/BB020005_テーブル一覧.xlsx
+++ b/AB020_機能設計書/BB020_テーブル設計書/BB020005_テーブル一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CACC76A-FFD4-432F-B9AF-22B0926855F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1E47E4-4E0A-4939-966A-3FD9321451E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="10104" windowWidth="19188" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="9816" windowWidth="18036" windowHeight="5088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
